--- a/biology/Zoologie/Bouche_coupante/Bouche_coupante.xlsx
+++ b/biology/Zoologie/Bouche_coupante/Bouche_coupante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acrocheilus alutaceus
 La Bouche coupante (Acrocheilus alutaceus) est une espèce de poissons de la famille des Cyprinidae vivant en Amérique du Nord. C'est la seule espèce de son genre Acrocheilus (monotypique).
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit dans les cours d'eau du Canada et des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans les cours d'eau du Canada et des États-Unis.
 </t>
         </is>
       </c>
